--- a/spliced/falling/2023-03-25_17-55-44/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-44/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.571854650974273</v>
+        <v>-0.9255759716033934</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08382582664489754</v>
+        <v>1.071177214384079</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.215982675552368</v>
+        <v>-0.401322513818741</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.946246147155765</v>
+        <v>-1.280259013175964</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2504835128784156</v>
+        <v>0.5940434336662286</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.480054140090942</v>
+        <v>-1.134497284889223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-5.073675036430361</v>
+        <v>-1.571854650974273</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.826430678367616</v>
+        <v>0.08382582664489754</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.739734649658203</v>
+        <v>-2.215982675552368</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.199407458305356</v>
+        <v>-1.946246147155765</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.501654863357543</v>
+        <v>0.2504835128784156</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.262988328933716</v>
+        <v>-2.480054140090942</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8.78546768426898</v>
+        <v>-5.073675036430361</v>
       </c>
       <c r="B6" t="n">
-        <v>-8.89101099967958</v>
+        <v>-1.826430678367616</v>
       </c>
       <c r="C6" t="n">
-        <v>47.06318786740315</v>
+        <v>-2.739734649658203</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.72559547424312</v>
+        <v>-3.199407458305356</v>
       </c>
       <c r="B7" t="n">
-        <v>-6.610608488321275</v>
+        <v>-1.501654863357543</v>
       </c>
       <c r="C7" t="n">
-        <v>35.79121446609481</v>
+        <v>-3.262988328933716</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-8.249110460281372</v>
+        <v>8.78546768426898</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.285275377333166</v>
+        <v>-8.89101099967958</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.368247583508488</v>
+        <v>47.06318786740315</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-7.083846211433405</v>
+        <v>3.72559547424312</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.286428689956659</v>
+        <v>-6.610608488321275</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4840306788682932</v>
+        <v>35.79121446609481</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.840081989765169</v>
+        <v>-8.249110460281372</v>
       </c>
       <c r="B10" t="n">
-        <v>2.111219294369222</v>
+        <v>-1.285275377333166</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04846413433551781</v>
+        <v>-3.368247583508488</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.811614036560053</v>
+        <v>-7.083846211433405</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9647219777107299</v>
+        <v>-2.286428689956659</v>
       </c>
       <c r="C11" t="n">
-        <v>0.292347490787505</v>
+        <v>0.4840306788682932</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.02576005458831</v>
+        <v>-1.840081989765169</v>
       </c>
       <c r="B12" t="n">
-        <v>3.592965073883541</v>
+        <v>2.111219294369222</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1755489408969892</v>
+        <v>0.04846413433551781</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2673106193542476</v>
+        <v>3.811614036560053</v>
       </c>
       <c r="B13" t="n">
-        <v>1.979196399450299</v>
+        <v>0.9647219777107299</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2698189914226538</v>
+        <v>0.292347490787505</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.6833226680755626</v>
+        <v>1.02576005458831</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.3385796248912853</v>
+        <v>3.592965073883541</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.02221550792456</v>
+        <v>-0.1755489408969892</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4996232986450184</v>
+        <v>0.2673106193542476</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.3156740069389323</v>
+        <v>1.979196399450299</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2882215976715059</v>
+        <v>0.2698189914226538</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.2515395879745499</v>
+        <v>0.6833226680755626</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7405525892972948</v>
+        <v>-0.3385796248912853</v>
       </c>
       <c r="C16" t="n">
-        <v>1.177142247557639</v>
+        <v>-1.02221550792456</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.430771350860593</v>
+        <v>0.4996232986450184</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8799855709075934</v>
+        <v>-0.3156740069389323</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8326354324817646</v>
+        <v>-0.2882215976715059</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.2168139219284046</v>
+        <v>-0.2515395879745499</v>
       </c>
       <c r="B18" t="n">
-        <v>1.084875062108039</v>
+        <v>0.7405525892972948</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5181054919958111</v>
+        <v>1.177142247557639</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.08790016174316459</v>
+        <v>-0.430771350860593</v>
       </c>
       <c r="B19" t="n">
-        <v>1.008570432662963</v>
+        <v>0.8799855709075934</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4307903051376349</v>
+        <v>0.8326354324817646</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.2223867177963257</v>
+        <v>0.2168139219284046</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8657857477664948</v>
+        <v>1.084875062108039</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5839412361383439</v>
+        <v>0.5181054919958111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1144545078277593</v>
+        <v>-0.08790016174316459</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9493652880191804</v>
+        <v>1.008570432662963</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8125896006822588</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.001384258270263117</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.9941152483224868</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7851106524467466</v>
+        <v>0.4307903051376349</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-55-44/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-44/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,116 @@
         <v>0.4307903051376349</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.2223867177963257</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8657857477664948</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5839412361383439</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.1144545078277593</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9493652880191804</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8125896006822588</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.001384258270263117</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9941152483224868</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7851106524467466</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.04791402816772423</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9533933401107785</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.6604413688182829</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.02978670597076406</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9465968608856203</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.6349874883890154</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.007494449615478475</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9755845963954928</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.702362984418869</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.001274824142456048</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8726469278335574</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.6991539821028709</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.003990173339843651</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9426385164260862</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.7098991274833678</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.00699806213378908</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.904570586979389</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.691669926047325</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.01654338836669934</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8796091377735137</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.693576380610466</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
